--- a/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-2024-WAN_Services6x6_3.0.xlsx
+++ b/DIR/Proyecto/P1-e7 Internet Service Provider (ISP)/GIC-DIR-2024-WAN_Services6x6_3.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEA1D0-2996-4608-AEFA-FF2CE1D3269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692"/>
   </bookViews>
   <sheets>
     <sheet name="WAN Services" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="services_8" localSheetId="0">'WAN Services'!$C$164:$F$177</definedName>
     <definedName name="services_9" localSheetId="0">'WAN Services'!$C$18:$M$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,8 +44,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="services" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="services" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -59,7 +58,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="services1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" name="services1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -72,7 +71,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="services11" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="services11" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -85,7 +84,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="services111" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" name="services111" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -98,7 +97,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="services112" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="5" name="services112" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -111,7 +110,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="services1121" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="6" name="services1121" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -124,7 +123,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="services11211" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="7" name="services11211" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -137,7 +136,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="services112111" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="8" name="services112111" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -150,7 +149,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="services1121111" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="9" name="services1121111" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -163,7 +162,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" name="services11212" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="10" name="services11212" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -176,7 +175,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" name="services112121" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="11" name="services112121" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -189,7 +188,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" name="services1121211" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="12" name="services1121211" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -202,7 +201,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF0C000000}" name="services1121213" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="13" name="services1121213" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -215,7 +214,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{2E63A096-FB18-426B-A925-8C99023A66EA}" name="services112122" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="14" name="services112122" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -228,7 +227,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{BABD343B-6DC6-40F4-AEEA-559D55087BFF}" name="services1121221" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="15" name="services1121221" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -241,7 +240,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{A1DCE485-16DA-4AC5-80F4-2D4307B8CF2F}" name="services11212211" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="16" name="services11212211" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -254,7 +253,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{C0F95311-B3BA-4CFA-AA08-1319788F6F17}" name="services112122111" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="17" name="services112122111" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -267,7 +266,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{E9EE6F7E-DCBE-438D-A31F-2A8089AF5E99}" name="services1121221111" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="18" name="services1121221111" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\services.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -280,7 +279,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{00000000-0015-0000-FFFF-FFFF0D000000}" name="t" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="19" name="t" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1251" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\t.csv" decimal="," thousands="." comma="1">
       <textFields count="2">
         <textField/>
@@ -288,7 +287,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{00000000-0015-0000-FFFF-FFFF0E000000}" name="t1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="20" name="t1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1251" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\t.csv" decimal="," thousands="." comma="1">
       <textFields count="2">
         <textField/>
@@ -296,7 +295,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{00000000-0015-0000-FFFF-FFFF0F000000}" name="vlans1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="21" name="vlans1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\guille\rsync-temp\docencia\dir\Ejercicios\GIC-DIR-P3_v1\Templates\vlans.csv" decimal="," thousands="." comma="1">
       <textFields count="2">
         <textField/>
@@ -577,7 +576,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1553,18 +1552,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,9 +1582,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,9 +1595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2056,47 +2055,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_6" connectionId="10" xr16:uid="{00000000-0016-0000-0000-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_15" connectionId="17" xr16:uid="{32DC77D0-5660-407C-85F3-907D637BF1F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_14" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_8" connectionId="8" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_16" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_14" connectionId="16" xr16:uid="{D1FD40B3-0A71-4326-A3E8-5FCAE7EA6533}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_7" connectionId="11" xr16:uid="{00000000-0016-0000-0000-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_9" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_13" connectionId="15" xr16:uid="{53F9C03D-14E2-4651-AB66-A0C908ABC09A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_13" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_10" connectionId="9" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_15" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_12" connectionId="14" xr16:uid="{19B22C0B-458B-41AF-986F-41822464135D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_10" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_16" connectionId="18" xr16:uid="{9A679753-CEEA-473D-BAFE-909A5B1D7F0A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_6" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_5" connectionId="6" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_8" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="services_9" connectionId="7" xr16:uid="{00000000-0016-0000-0000-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="services_12" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2142,7 +2141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2175,26 +2174,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2227,23 +2209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2419,14 +2384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,11 +2425,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
       <c r="K1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2473,15 +2438,15 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="139" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="9"/>
       <c r="I2" s="9"/>
       <c r="K2" s="1"/>
@@ -2518,12 +2483,12 @@
       <c r="H3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="X3" s="1"/>
@@ -2558,10 +2523,10 @@
       <c r="I4" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="149"/>
+      <c r="K4" s="150"/>
       <c r="L4" s="8" t="s">
         <v>80</v>
       </c>
@@ -2600,10 +2565,10 @@
       <c r="I5" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="147"/>
+      <c r="K5" s="148"/>
       <c r="L5" s="3">
         <v>38002</v>
       </c>
@@ -2642,10 +2607,10 @@
       <c r="I6" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="147" t="s">
+      <c r="J6" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="147"/>
+      <c r="K6" s="148"/>
       <c r="L6" s="3">
         <v>38001</v>
       </c>
@@ -2684,10 +2649,10 @@
       <c r="I7" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="148" t="s">
+      <c r="J7" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="4">
         <v>38001</v>
       </c>
@@ -3760,38 +3725,38 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="139" t="s">
+      <c r="C42" s="147"/>
+      <c r="D42" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="140"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="144" t="s">
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="145"/>
-      <c r="I42" s="150" t="s">
+      <c r="H42" s="147"/>
+      <c r="I42" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="J42" s="151"/>
-      <c r="K42" s="144" t="s">
+      <c r="J42" s="152"/>
+      <c r="K42" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="145"/>
+      <c r="L42" s="147"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="X42" s="1"/>
@@ -5818,10 +5783,10 @@
       <c r="X80" s="1"/>
     </row>
     <row r="81" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="138" t="s">
+      <c r="A81" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="138"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5844,26 +5809,26 @@
       <c r="W81" s="2"/>
     </row>
     <row r="82" spans="1:23" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="141"/>
-      <c r="C82" s="139" t="s">
+      <c r="B82" s="140"/>
+      <c r="C82" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="141"/>
-      <c r="G82" s="142" t="s">
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="142"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="150" t="s">
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="144"/>
+      <c r="K82" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="L82" s="151"/>
+      <c r="L82" s="152"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -6888,7 +6853,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="20" t="str">
-        <f t="shared" si="58"/>
+        <f>CONCATENATE(L103,".",ROUNDDOWN(K103/256,0),".",MOD(K103,256)," - ",L103,".",ROUNDDOWN(K103/256,0),".",MOD(K103+G103-1,256))</f>
         <v>80.1.3.32 - 80.1.3.39</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -7713,13 +7678,13 @@
       <c r="F120" s="62"/>
     </row>
     <row r="121" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="152" t="s">
+      <c r="A121" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B121" s="152"/>
-      <c r="C121" s="152"/>
-      <c r="D121" s="152"/>
-      <c r="E121" s="152"/>
+      <c r="B121" s="142"/>
+      <c r="C121" s="142"/>
+      <c r="D121" s="142"/>
+      <c r="E121" s="142"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -7739,16 +7704,16 @@
       <c r="W121" s="2"/>
     </row>
     <row r="122" spans="1:23" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="139" t="s">
+      <c r="A122" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="140"/>
-      <c r="C122" s="139" t="s">
+      <c r="B122" s="139"/>
+      <c r="C122" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="D122" s="140"/>
-      <c r="E122" s="140"/>
-      <c r="F122" s="141"/>
+      <c r="D122" s="139"/>
+      <c r="E122" s="139"/>
+      <c r="F122" s="140"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -8768,30 +8733,30 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="143" t="s">
+      <c r="A161" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="B161" s="138"/>
-      <c r="C161" s="138"/>
-      <c r="D161" s="138"/>
+      <c r="B161" s="143"/>
+      <c r="C161" s="143"/>
+      <c r="D161" s="143"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="139" t="s">
+      <c r="A162" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B162" s="140"/>
-      <c r="C162" s="139" t="s">
+      <c r="B162" s="139"/>
+      <c r="C162" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D162" s="140"/>
-      <c r="E162" s="140"/>
-      <c r="F162" s="141"/>
-      <c r="G162" s="139" t="s">
+      <c r="D162" s="139"/>
+      <c r="E162" s="139"/>
+      <c r="F162" s="140"/>
+      <c r="G162" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="H162" s="140"/>
-      <c r="I162" s="140"/>
-      <c r="J162" s="141"/>
+      <c r="H162" s="139"/>
+      <c r="I162" s="139"/>
+      <c r="J162" s="140"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
@@ -8840,7 +8805,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="109" t="str">
-        <f>F4</f>
+        <f t="shared" ref="E164:E199" si="98">F4</f>
         <v>USA</v>
       </c>
       <c r="F164" s="64" t="str">
@@ -8876,11 +8841,11 @@
         <v>5</v>
       </c>
       <c r="E165" s="10" t="str">
-        <f>F5</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F165" s="66" t="str">
-        <f t="shared" ref="F165:F199" si="98">CONCATENATE("HOME",A165,"-",B165)</f>
+        <f t="shared" ref="F165:F199" si="99">CONCATENATE("HOME",A165,"-",B165)</f>
         <v>HOME1-2</v>
       </c>
       <c r="G165" s="50" t="s">
@@ -8912,11 +8877,11 @@
         <v>5</v>
       </c>
       <c r="E166" s="10" t="str">
-        <f>F6</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F166" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME1-3</v>
       </c>
       <c r="G166" s="50" t="s">
@@ -8948,11 +8913,11 @@
         <v>5</v>
       </c>
       <c r="E167" s="10" t="str">
-        <f>F7</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F167" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME1-4</v>
       </c>
       <c r="G167" s="50" t="s">
@@ -8984,11 +8949,11 @@
         <v>5</v>
       </c>
       <c r="E168" s="10" t="str">
-        <f>F8</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F168" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME1-5</v>
       </c>
       <c r="G168" s="50" t="s">
@@ -9020,11 +8985,11 @@
         <v>5</v>
       </c>
       <c r="E169" s="10" t="str">
-        <f>F9</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F169" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME1-6</v>
       </c>
       <c r="G169" s="50" t="s">
@@ -9055,11 +9020,11 @@
         <v>5</v>
       </c>
       <c r="E170" s="10" t="str">
-        <f>F10</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F170" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-1</v>
       </c>
       <c r="G170" s="50" t="s">
@@ -9081,7 +9046,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="59">
-        <f t="shared" ref="B171:B175" si="99">IF(A171=A170,B170+1,1)</f>
+        <f t="shared" ref="B171:B175" si="100">IF(A171=A170,B170+1,1)</f>
         <v>2</v>
       </c>
       <c r="C171" s="53" t="s">
@@ -9091,11 +9056,11 @@
         <v>5</v>
       </c>
       <c r="E171" s="10" t="str">
-        <f>F11</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F171" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-2</v>
       </c>
       <c r="G171" s="50" t="s">
@@ -9117,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="59">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>3</v>
       </c>
       <c r="C172" s="53" t="s">
@@ -9127,11 +9092,11 @@
         <v>5</v>
       </c>
       <c r="E172" s="10" t="str">
-        <f>F12</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F172" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-3</v>
       </c>
       <c r="G172" s="50" t="s">
@@ -9153,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="59">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>4</v>
       </c>
       <c r="C173" s="53" t="s">
@@ -9163,11 +9128,11 @@
         <v>5</v>
       </c>
       <c r="E173" s="10" t="str">
-        <f>F13</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F173" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-4</v>
       </c>
       <c r="G173" s="50" t="s">
@@ -9189,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="59">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5</v>
       </c>
       <c r="C174" s="53" t="s">
@@ -9199,11 +9164,11 @@
         <v>5</v>
       </c>
       <c r="E174" s="10" t="str">
-        <f>F14</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F174" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-5</v>
       </c>
       <c r="G174" s="50" t="s">
@@ -9225,7 +9190,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="99">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>6</v>
       </c>
       <c r="C175" s="53" t="s">
@@ -9235,11 +9200,11 @@
         <v>5</v>
       </c>
       <c r="E175" s="10" t="str">
-        <f>F15</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F175" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME2-6</v>
       </c>
       <c r="G175" s="50" t="s">
@@ -9270,11 +9235,11 @@
         <v>5</v>
       </c>
       <c r="E176" s="10" t="str">
-        <f>F16</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F176" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-1</v>
       </c>
       <c r="G176" s="50" t="s">
@@ -9296,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="B177" s="60">
-        <f t="shared" ref="B177:B181" si="100">IF(A177=A176,B176+1,1)</f>
+        <f t="shared" ref="B177:B181" si="101">IF(A177=A176,B176+1,1)</f>
         <v>2</v>
       </c>
       <c r="C177" s="53" t="s">
@@ -9306,11 +9271,11 @@
         <v>5</v>
       </c>
       <c r="E177" s="10" t="str">
-        <f>F17</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F177" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-2</v>
       </c>
       <c r="G177" s="50" t="s">
@@ -9332,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3</v>
       </c>
       <c r="C178" s="53" t="s">
@@ -9342,11 +9307,11 @@
         <v>5</v>
       </c>
       <c r="E178" s="10" t="str">
-        <f>F18</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F178" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-3</v>
       </c>
       <c r="G178" s="50" t="s">
@@ -9368,7 +9333,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>4</v>
       </c>
       <c r="C179" s="53" t="s">
@@ -9378,11 +9343,11 @@
         <v>5</v>
       </c>
       <c r="E179" s="10" t="str">
-        <f>F19</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F179" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-4</v>
       </c>
       <c r="G179" s="50" t="s">
@@ -9404,7 +9369,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="60">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5</v>
       </c>
       <c r="C180" s="53" t="s">
@@ -9414,11 +9379,11 @@
         <v>5</v>
       </c>
       <c r="E180" s="10" t="str">
-        <f>F20</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F180" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-5</v>
       </c>
       <c r="G180" s="50" t="s">
@@ -9440,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="100">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>6</v>
       </c>
       <c r="C181" s="53" t="s">
@@ -9450,11 +9415,11 @@
         <v>5</v>
       </c>
       <c r="E181" s="10" t="str">
-        <f>F21</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F181" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME3-6</v>
       </c>
       <c r="G181" s="50" t="s">
@@ -9485,11 +9450,11 @@
         <v>5</v>
       </c>
       <c r="E182" s="10" t="str">
-        <f>F22</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F182" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-1</v>
       </c>
       <c r="G182" s="50" t="s">
@@ -9511,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="61">
-        <f t="shared" ref="B183:B187" si="101">IF(A183=A182,B182+1,1)</f>
+        <f t="shared" ref="B183:B187" si="102">IF(A183=A182,B182+1,1)</f>
         <v>2</v>
       </c>
       <c r="C183" s="53" t="s">
@@ -9521,11 +9486,11 @@
         <v>5</v>
       </c>
       <c r="E183" s="10" t="str">
-        <f>F23</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F183" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-2</v>
       </c>
       <c r="G183" s="50" t="s">
@@ -9547,7 +9512,7 @@
         <v>4</v>
       </c>
       <c r="B184" s="61">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>3</v>
       </c>
       <c r="C184" s="53" t="s">
@@ -9557,11 +9522,11 @@
         <v>5</v>
       </c>
       <c r="E184" s="10" t="str">
-        <f>F24</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F184" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-3</v>
       </c>
       <c r="G184" s="50" t="s">
@@ -9583,7 +9548,7 @@
         <v>4</v>
       </c>
       <c r="B185" s="61">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="C185" s="53" t="s">
@@ -9593,11 +9558,11 @@
         <v>5</v>
       </c>
       <c r="E185" s="10" t="str">
-        <f>F25</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F185" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-4</v>
       </c>
       <c r="G185" s="50" t="s">
@@ -9619,7 +9584,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="61">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>5</v>
       </c>
       <c r="C186" s="53" t="s">
@@ -9629,11 +9594,11 @@
         <v>5</v>
       </c>
       <c r="E186" s="10" t="str">
-        <f>F26</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F186" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-5</v>
       </c>
       <c r="G186" s="50" t="s">
@@ -9655,7 +9620,7 @@
         <v>4</v>
       </c>
       <c r="B187" s="101">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>6</v>
       </c>
       <c r="C187" s="53" t="s">
@@ -9665,11 +9630,11 @@
         <v>5</v>
       </c>
       <c r="E187" s="10" t="str">
-        <f>F27</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F187" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME4-6</v>
       </c>
       <c r="G187" s="50" t="s">
@@ -9700,11 +9665,11 @@
         <v>5</v>
       </c>
       <c r="E188" s="10" t="str">
-        <f>F28</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F188" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-1</v>
       </c>
       <c r="G188" s="50" t="s">
@@ -9726,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="80">
-        <f t="shared" ref="B189:B193" si="102">IF(A189=A188,B188+1,1)</f>
+        <f t="shared" ref="B189:B193" si="103">IF(A189=A188,B188+1,1)</f>
         <v>2</v>
       </c>
       <c r="C189" s="53" t="s">
@@ -9736,11 +9701,11 @@
         <v>5</v>
       </c>
       <c r="E189" s="10" t="str">
-        <f>F29</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F189" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-2</v>
       </c>
       <c r="G189" s="50" t="s">
@@ -9762,7 +9727,7 @@
         <v>5</v>
       </c>
       <c r="B190" s="80">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3</v>
       </c>
       <c r="C190" s="53" t="s">
@@ -9772,11 +9737,11 @@
         <v>5</v>
       </c>
       <c r="E190" s="10" t="str">
-        <f>F30</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F190" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-3</v>
       </c>
       <c r="G190" s="50" t="s">
@@ -9798,7 +9763,7 @@
         <v>5</v>
       </c>
       <c r="B191" s="80">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4</v>
       </c>
       <c r="C191" s="53" t="s">
@@ -9808,11 +9773,11 @@
         <v>5</v>
       </c>
       <c r="E191" s="10" t="str">
-        <f>F31</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F191" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-4</v>
       </c>
       <c r="G191" s="50" t="s">
@@ -9834,7 +9799,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="80">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>5</v>
       </c>
       <c r="C192" s="53" t="s">
@@ -9844,11 +9809,11 @@
         <v>5</v>
       </c>
       <c r="E192" s="10" t="str">
-        <f>F32</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F192" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-5</v>
       </c>
       <c r="G192" s="50" t="s">
@@ -9870,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="104">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6</v>
       </c>
       <c r="C193" s="53" t="s">
@@ -9880,11 +9845,11 @@
         <v>5</v>
       </c>
       <c r="E193" s="10" t="str">
-        <f>F33</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F193" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME5-6</v>
       </c>
       <c r="G193" s="50" t="s">
@@ -9915,11 +9880,11 @@
         <v>5</v>
       </c>
       <c r="E194" s="10" t="str">
-        <f>F34</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F194" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-1</v>
       </c>
       <c r="G194" s="50" t="s">
@@ -9951,11 +9916,11 @@
         <v>5</v>
       </c>
       <c r="E195" s="10" t="str">
-        <f>F35</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F195" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-2</v>
       </c>
       <c r="G195" s="50" t="s">
@@ -9987,11 +9952,11 @@
         <v>5</v>
       </c>
       <c r="E196" s="10" t="str">
-        <f>F36</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F196" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-3</v>
       </c>
       <c r="G196" s="50" t="s">
@@ -10023,11 +9988,11 @@
         <v>5</v>
       </c>
       <c r="E197" s="10" t="str">
-        <f>F37</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F197" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-4</v>
       </c>
       <c r="G197" s="50" t="s">
@@ -10049,7 +10014,7 @@
         <v>6</v>
       </c>
       <c r="B198" s="82">
-        <f t="shared" ref="B198:B199" si="103">IF(A198=A197,B197+1,1)</f>
+        <f t="shared" ref="B198:B199" si="104">IF(A198=A197,B197+1,1)</f>
         <v>5</v>
       </c>
       <c r="C198" s="53" t="s">
@@ -10059,11 +10024,11 @@
         <v>5</v>
       </c>
       <c r="E198" s="10" t="str">
-        <f>F38</f>
+        <f t="shared" si="98"/>
         <v>EUR</v>
       </c>
       <c r="F198" s="66" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-5</v>
       </c>
       <c r="G198" s="50" t="s">
@@ -10085,7 +10050,7 @@
         <v>6</v>
       </c>
       <c r="B199" s="84">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>6</v>
       </c>
       <c r="C199" s="54" t="s">
@@ -10095,11 +10060,11 @@
         <v>5</v>
       </c>
       <c r="E199" s="91" t="str">
-        <f>F39</f>
+        <f t="shared" si="98"/>
         <v>USA</v>
       </c>
       <c r="F199" s="69" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>HOME6-6</v>
       </c>
       <c r="G199" s="51" t="s">
@@ -10117,16 +10082,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="G162:J162"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A162:B162"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="G82:J82"/>
@@ -10143,6 +10098,16 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="K82:L82"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="G162:J162"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A162:B162"/>
   </mergeCells>
   <conditionalFormatting sqref="E164:E167 E170:E173 E176:E179 E182:E185 E188:E191 E194:E197">
     <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
